--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_17_a.xlsx
@@ -83,7 +83,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Rhodes Island, on a certain day…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] Rhodes Island, on a certain day...
 </t>
   </si>
   <si>
@@ -103,7 +103,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Uh… got it!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Uh... got it!
 </t>
   </si>
   <si>
